--- a/Neha01.xlsx
+++ b/Neha01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -52,100 +52,115 @@
     <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>GET Request</x:t>
+    <x:t>New Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
   </x:si>
   <x:si>
     <x:t>Step 1</x:t>
   </x:si>
   <x:si>
-    <x:t>Validate if the request type selected from the dropdown is GET</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the request type is GET</x:t>
+    <x:t>Click on the Account tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Account Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Account Name </x:t>
   </x:si>
   <x:si>
     <x:t>Step 2</x:t>
   </x:si>
   <x:si>
-    <x:t>Validate in the API URL text box, a valid "ENDPOINT" is input as a URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the ENDPOINT's URL</x:t>
+    <x:t>Input valid value in the  Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field  </x:t>
   </x:si>
   <x:si>
     <x:t>Step 3</x:t>
   </x:si>
   <x:si>
-    <x:t>Navigate to the Authorization tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Authorization Tab</x:t>
+    <x:t>Input valid value in the   field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the  field.</x:t>
   </x:si>
   <x:si>
     <x:t>Step 4</x:t>
   </x:si>
   <x:si>
-    <x:t>Input the Username and Password, if necessary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input the Username and Password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Navigate to the Header tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Header Tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input the data, if necessary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input the data for the fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Navigate to the Body tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Body tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Navigate to the Test tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Test tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select the appropriate test(s) by selecting the corresponding CheckBox</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to select appropriate Test(s) by selecting the CheckBoxes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save to save the configuration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Configuration Saved success message should be displayed</x:t>
+    <x:t>Click on Save button to save Account with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Account is created</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Account tab,  and select a Account </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Account Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Account name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Account Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab,  and click on existing Account to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Account Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Account is edited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab,  and select the existing  Account to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Account is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -229,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J23" totalsRowShown="0">
-  <x:autoFilter ref="A1:J23"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J14" totalsRowShown="0">
+  <x:autoFilter ref="A1:J14"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -535,7 +550,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J23"/>
+  <x:dimension ref="A1:J14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -543,12 +558,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="65.270625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="70.840624999999989" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="16.550625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="41.980625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="61.840625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="93.550625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -595,16 +610,18 @@
       <x:c r="C2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E2" s="0" t="s"/>
       <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
@@ -614,15 +631,17 @@
       <x:c r="B3" s="0" t="s"/>
       <x:c r="C3" s="0" t="s"/>
       <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
@@ -632,15 +651,17 @@
       <x:c r="B4" s="0" t="s"/>
       <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
@@ -652,31 +673,39 @@
       <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:10">
-      <x:c r="A6" s="0" t="s"/>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
+      <x:c r="A6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -688,31 +717,39 @@
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="A8" s="0" t="s"/>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
+      <x:c r="A8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -722,15 +759,17 @@
       <x:c r="B9" s="0" t="s"/>
       <x:c r="C9" s="0" t="s"/>
       <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -740,15 +779,17 @@
       <x:c r="B10" s="0" t="s"/>
       <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -760,10 +801,10 @@
       <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
         <x:v>40</x:v>
@@ -772,43 +813,45 @@
       <x:c r="J11" s="0" t="s"/>
     </x:row>
     <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
+      <x:c r="A12" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
     </x:row>
     <x:row r="13" spans="1:10">
-      <x:c r="A13" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -820,178 +863,16 @@
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="s"/>
-      <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s"/>
-      <x:c r="F15" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s"/>
-      <x:c r="J15" s="0" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:10">
-      <x:c r="A16" s="0" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
-      <x:c r="C16" s="0" t="s"/>
-      <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s"/>
-      <x:c r="F16" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s"/>
-      <x:c r="J16" s="0" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="0" t="s"/>
-      <x:c r="B17" s="0" t="s"/>
-      <x:c r="C17" s="0" t="s"/>
-      <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s"/>
-      <x:c r="F17" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s"/>
-      <x:c r="J17" s="0" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
-      <x:c r="D18" s="0" t="s"/>
-      <x:c r="E18" s="0" t="s"/>
-      <x:c r="F18" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s"/>
-      <x:c r="J18" s="0" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s"/>
-      <x:c r="B19" s="0" t="s"/>
-      <x:c r="C19" s="0" t="s"/>
-      <x:c r="D19" s="0" t="s"/>
-      <x:c r="E19" s="0" t="s"/>
-      <x:c r="F19" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s"/>
-      <x:c r="J19" s="0" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="0" t="s"/>
-      <x:c r="B20" s="0" t="s"/>
-      <x:c r="C20" s="0" t="s"/>
-      <x:c r="D20" s="0" t="s"/>
-      <x:c r="E20" s="0" t="s"/>
-      <x:c r="F20" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s"/>
-      <x:c r="J20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="0" t="s"/>
-      <x:c r="B21" s="0" t="s"/>
-      <x:c r="C21" s="0" t="s"/>
-      <x:c r="D21" s="0" t="s"/>
-      <x:c r="E21" s="0" t="s"/>
-      <x:c r="F21" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s"/>
-      <x:c r="J21" s="0" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="0" t="s"/>
-      <x:c r="B22" s="0" t="s"/>
-      <x:c r="C22" s="0" t="s"/>
-      <x:c r="D22" s="0" t="s"/>
-      <x:c r="E22" s="0" t="s"/>
-      <x:c r="F22" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s"/>
-      <x:c r="J22" s="0" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:10">
-      <x:c r="A23" s="0" t="s"/>
-      <x:c r="B23" s="0" t="s"/>
-      <x:c r="C23" s="0" t="s"/>
-      <x:c r="D23" s="0" t="s"/>
-      <x:c r="E23" s="0" t="s"/>
-      <x:c r="F23" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s"/>
-      <x:c r="J23" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Neha01.xlsx
+++ b/Neha01.xlsx
@@ -6,7 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Test-Cases" sheetId="2" r:id="rId2"/>
+    <x:sheet name="SF_myy" sheetId="2" r:id="rId2"/>
+    <x:sheet name="SF_Package1" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -244,8 +245,27 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J14" totalsRowShown="0">
-  <x:autoFilter ref="A1:J14"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J18" totalsRowShown="0">
+  <x:autoFilter ref="A1:J18"/>
+  <x:tableColumns count="10">
+    <x:tableColumn id="1" name="TestScenarioID"/>
+    <x:tableColumn id="2" name="TestCaseID"/>
+    <x:tableColumn id="3" name="Description"/>
+    <x:tableColumn id="4" name="Precondition"/>
+    <x:tableColumn id="5" name="TestData"/>
+    <x:tableColumn id="6" name="Steps"/>
+    <x:tableColumn id="7" name="UserAction"/>
+    <x:tableColumn id="8" name="ExpectedResult"/>
+    <x:tableColumn id="9" name="Approved/Rejected"/>
+    <x:tableColumn id="10" name="ReasonToReject"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table11" displayName="Table11" ref="A1:J27" totalsRowShown="0">
+  <x:autoFilter ref="A1:J27"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -550,7 +570,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J14"/>
+  <x:dimension ref="A1:J18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -814,6 +834,430 @@
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s"/>
+      <x:c r="F18" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId6"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:J27"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="16.550625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="41.980625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="61.840625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="93.550625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:10">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:10">
+      <x:c r="A2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s"/>
+      <x:c r="J2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:10">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:10">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s"/>
+      <x:c r="F5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s"/>
+      <x:c r="F8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
@@ -874,13 +1318,287 @@
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
     </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s"/>
+      <x:c r="F18" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s"/>
+      <x:c r="F19" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="0" t="s"/>
+      <x:c r="B20" s="0" t="s"/>
+      <x:c r="C20" s="0" t="s"/>
+      <x:c r="D20" s="0" t="s"/>
+      <x:c r="E20" s="0" t="s"/>
+      <x:c r="F20" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="A21" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s"/>
+      <x:c r="F21" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:10">
+      <x:c r="A22" s="0" t="s"/>
+      <x:c r="B22" s="0" t="s"/>
+      <x:c r="C22" s="0" t="s"/>
+      <x:c r="D22" s="0" t="s"/>
+      <x:c r="E22" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:10">
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
+      <x:c r="D23" s="0" t="s"/>
+      <x:c r="E23" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s"/>
+      <x:c r="J23" s="0" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:10">
+      <x:c r="A24" s="0" t="s"/>
+      <x:c r="B24" s="0" t="s"/>
+      <x:c r="C24" s="0" t="s"/>
+      <x:c r="D24" s="0" t="s"/>
+      <x:c r="E24" s="0" t="s"/>
+      <x:c r="F24" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s"/>
+      <x:c r="J24" s="0" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:10">
+      <x:c r="A25" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s"/>
+      <x:c r="F25" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s"/>
+      <x:c r="J25" s="0" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:10">
+      <x:c r="A26" s="0" t="s"/>
+      <x:c r="B26" s="0" t="s"/>
+      <x:c r="C26" s="0" t="s"/>
+      <x:c r="D26" s="0" t="s"/>
+      <x:c r="E26" s="0" t="s"/>
+      <x:c r="F26" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s"/>
+      <x:c r="J26" s="0" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:10">
+      <x:c r="A27" s="0" t="s"/>
+      <x:c r="B27" s="0" t="s"/>
+      <x:c r="C27" s="0" t="s"/>
+      <x:c r="D27" s="0" t="s"/>
+      <x:c r="E27" s="0" t="s"/>
+      <x:c r="F27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s"/>
+      <x:c r="J27" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId5"/>
+    <x:tablePart r:id="rId7"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/Neha01.xlsx
+++ b/Neha01.xlsx
@@ -264,8 +264,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table11" displayName="Table11" ref="A1:J27" totalsRowShown="0">
-  <x:autoFilter ref="A1:J27"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table11" displayName="Table11" ref="A1:J21" totalsRowShown="0">
+  <x:autoFilter ref="A1:J21"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -994,7 +994,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J27"/>
+  <x:dimension ref="A1:J21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1320,13 +1320,13 @@
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
         <x:v>13</x:v>
@@ -1336,10 +1336,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -1397,20 +1397,20 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
     </x:row>
     <x:row r="19" spans="1:10">
       <x:c r="A19" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>13</x:v>
@@ -1420,10 +1420,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1438,159 +1438,31 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
     </x:row>
     <x:row r="21" spans="1:10">
-      <x:c r="A21" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A21" s="0" t="s"/>
+      <x:c r="B21" s="0" t="s"/>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="0" t="s"/>
       <x:c r="E21" s="0" t="s"/>
       <x:c r="F21" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="0" t="s"/>
-      <x:c r="B22" s="0" t="s"/>
-      <x:c r="C22" s="0" t="s"/>
-      <x:c r="D22" s="0" t="s"/>
-      <x:c r="E22" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s"/>
-      <x:c r="J22" s="0" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:10">
-      <x:c r="A23" s="0" t="s"/>
-      <x:c r="B23" s="0" t="s"/>
-      <x:c r="C23" s="0" t="s"/>
-      <x:c r="D23" s="0" t="s"/>
-      <x:c r="E23" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s"/>
-      <x:c r="J23" s="0" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:10">
-      <x:c r="A24" s="0" t="s"/>
-      <x:c r="B24" s="0" t="s"/>
-      <x:c r="C24" s="0" t="s"/>
-      <x:c r="D24" s="0" t="s"/>
-      <x:c r="E24" s="0" t="s"/>
-      <x:c r="F24" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I24" s="0" t="s"/>
-      <x:c r="J24" s="0" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:10">
-      <x:c r="A25" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s"/>
-      <x:c r="F25" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="I25" s="0" t="s"/>
-      <x:c r="J25" s="0" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:10">
-      <x:c r="A26" s="0" t="s"/>
-      <x:c r="B26" s="0" t="s"/>
-      <x:c r="C26" s="0" t="s"/>
-      <x:c r="D26" s="0" t="s"/>
-      <x:c r="E26" s="0" t="s"/>
-      <x:c r="F26" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G26" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="I26" s="0" t="s"/>
-      <x:c r="J26" s="0" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:10">
-      <x:c r="A27" s="0" t="s"/>
-      <x:c r="B27" s="0" t="s"/>
-      <x:c r="C27" s="0" t="s"/>
-      <x:c r="D27" s="0" t="s"/>
-      <x:c r="E27" s="0" t="s"/>
-      <x:c r="F27" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G27" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="I27" s="0" t="s"/>
-      <x:c r="J27" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Neha01.xlsx
+++ b/Neha01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TransitusPC-21\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AADD5BA-EB4C-4EC8-867E-9EC760FBEEAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5602F4ED-23E2-49C6-9585-772A530E2350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SF_Account_Package" sheetId="2" r:id="rId1"/>
@@ -763,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -1080,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>

--- a/Neha01.xlsx
+++ b/Neha01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TransitusPC-21\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450AD376-E804-487A-8D58-16BFF4CD83C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451A24A3-5F07-4AE6-A14F-BA060850FC39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="116">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -366,9 +366,6 @@
   </si>
   <si>
     <t>Dublicate</t>
-  </si>
-  <si>
-    <t>Rejecetd</t>
   </si>
   <si>
     <t>Not Required</t>
@@ -1080,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,10 +1351,10 @@
         <v>52</v>
       </c>
       <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" t="s">
         <v>115</v>
-      </c>
-      <c r="J20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1575,10 +1572,10 @@
         <v>52</v>
       </c>
       <c r="I39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J39" t="s">
         <v>115</v>
-      </c>
-      <c r="J39" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
